--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1856,7 +1856,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1866,8 +1866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B339" workbookViewId="0">
+      <selection activeCell="C353" sqref="C353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5504,7 +5504,7 @@
         <v>335</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="21">
@@ -5526,7 +5526,7 @@
         <v>337</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="349" spans="1:3" ht="21">
@@ -5537,7 +5537,7 @@
         <v>338</v>
       </c>
       <c r="C349" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="350" spans="1:3" ht="21">
@@ -5548,7 +5548,7 @@
         <v>339</v>
       </c>
       <c r="C350" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="351" spans="1:3" ht="21">
@@ -5559,7 +5559,7 @@
         <v>340</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="352" spans="1:3" ht="21">
@@ -5581,7 +5581,7 @@
         <v>342</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="354" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="471">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1435,6 +1435,9 @@
   </si>
   <si>
     <t>yes.d</t>
+  </si>
+  <si>
+    <t>37 ques</t>
   </si>
 </sst>
 </file>
@@ -1866,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B339" workbookViewId="0">
-      <selection activeCell="C353" sqref="C353"/>
+    <sheetView tabSelected="1" topLeftCell="B298" workbookViewId="0">
+      <selection activeCell="C300" sqref="C300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4957,6 +4960,9 @@
       <c r="C294" s="4"/>
     </row>
     <row r="295" spans="1:3" ht="21">
+      <c r="A295" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="B295" s="7"/>
       <c r="C295" s="4"/>
     </row>
@@ -4968,7 +4974,7 @@
         <v>286</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="297" spans="1:3" ht="21">
@@ -4979,7 +4985,7 @@
         <v>287</v>
       </c>
       <c r="C297" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="21">
@@ -4990,7 +4996,7 @@
         <v>288</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="21">
@@ -5001,7 +5007,7 @@
         <v>289</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="300" spans="1:3" ht="21">
@@ -5012,7 +5018,7 @@
         <v>290</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="301" spans="1:3" ht="21">
@@ -5023,7 +5029,7 @@
         <v>291</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="302" spans="1:3" ht="21">
@@ -5034,7 +5040,7 @@
         <v>292</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="303" spans="1:3" ht="21">
@@ -5045,7 +5051,7 @@
         <v>293</v>
       </c>
       <c r="C303" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="304" spans="1:3" ht="21">
@@ -5056,7 +5062,7 @@
         <v>294</v>
       </c>
       <c r="C304" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="305" spans="1:3" ht="21">
@@ -5111,7 +5117,7 @@
         <v>299</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="310" spans="1:3" ht="21">
@@ -5144,7 +5150,7 @@
         <v>302</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="313" spans="1:3" ht="21">
@@ -5155,7 +5161,7 @@
         <v>303</v>
       </c>
       <c r="C313" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="314" spans="1:3" ht="21">
@@ -5166,7 +5172,7 @@
         <v>304</v>
       </c>
       <c r="C314" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="315" spans="1:3" ht="21">
@@ -5375,7 +5381,7 @@
         <v>323</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1438,6 +1438,12 @@
   </si>
   <si>
     <t>37 ques</t>
+  </si>
+  <si>
+    <t>kch samjh nhi aya</t>
+  </si>
+  <si>
+    <t>18 questions</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1869,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B298" workbookViewId="0">
-      <selection activeCell="C300" sqref="C300"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="A418" sqref="A418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4743,6 +4749,9 @@
       <c r="C273" s="4"/>
     </row>
     <row r="274" spans="1:3" ht="21">
+      <c r="A274" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="B274" s="7"/>
       <c r="C274" s="4"/>
     </row>
@@ -5073,7 +5082,7 @@
         <v>295</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="306" spans="1:3" ht="21">
@@ -5084,7 +5093,7 @@
         <v>296</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="307" spans="1:3" ht="21">
@@ -5095,7 +5104,7 @@
         <v>297</v>
       </c>
       <c r="C307" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="308" spans="1:3" ht="21">
@@ -5106,7 +5115,7 @@
         <v>298</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>4</v>
+        <v>471</v>
       </c>
     </row>
     <row r="309" spans="1:3" ht="21">
@@ -5128,7 +5137,7 @@
         <v>300</v>
       </c>
       <c r="C310" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="311" spans="1:3" ht="21">
@@ -5139,7 +5148,7 @@
         <v>301</v>
       </c>
       <c r="C311" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="312" spans="1:3" ht="21">
@@ -5183,7 +5192,7 @@
         <v>305</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="21">
@@ -5194,7 +5203,7 @@
         <v>306</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="317" spans="1:3" ht="21">
@@ -5205,7 +5214,7 @@
         <v>307</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="318" spans="1:3" ht="21">
@@ -5216,7 +5225,7 @@
         <v>308</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="319" spans="1:3" ht="21">
@@ -5227,7 +5236,7 @@
         <v>309</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="320" spans="1:3" ht="21">
@@ -5238,7 +5247,7 @@
         <v>310</v>
       </c>
       <c r="C320" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="321" spans="1:3" ht="21">
@@ -5249,7 +5258,7 @@
         <v>311</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="322" spans="1:3" ht="21">
@@ -5260,7 +5269,7 @@
         <v>312</v>
       </c>
       <c r="C322" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="323" spans="1:3" ht="21">
@@ -5271,7 +5280,7 @@
         <v>313</v>
       </c>
       <c r="C323" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="324" spans="1:3" ht="21">
@@ -5282,7 +5291,7 @@
         <v>314</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="325" spans="1:3" ht="21">
@@ -5293,7 +5302,7 @@
         <v>315</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="326" spans="1:3" ht="21">
@@ -5304,7 +5313,7 @@
         <v>316</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="327" spans="1:3" ht="21">
@@ -5315,7 +5324,7 @@
         <v>317</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="21">
@@ -5337,7 +5346,7 @@
         <v>319</v>
       </c>
       <c r="C329" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="330" spans="1:3" ht="21">
@@ -5359,7 +5368,7 @@
         <v>321</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="332" spans="1:3" ht="21">
@@ -5370,7 +5379,7 @@
         <v>322</v>
       </c>
       <c r="C332" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1865,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
-      <selection activeCell="A418" sqref="A418"/>
+    <sheetView tabSelected="1" topLeftCell="B273" workbookViewId="0">
+      <selection activeCell="C277" sqref="C277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4763,7 +4763,7 @@
         <v>266</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="21">
@@ -4774,7 +4774,7 @@
         <v>267</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="277" spans="1:3" ht="21">
@@ -4829,7 +4829,7 @@
         <v>272</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="21">
@@ -4840,7 +4840,7 @@
         <v>273</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="21">
@@ -4851,7 +4851,7 @@
         <v>274</v>
       </c>
       <c r="C283" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="21">
@@ -4873,7 +4873,7 @@
         <v>276</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="286" spans="1:3" ht="21">
@@ -4884,7 +4884,7 @@
         <v>277</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="287" spans="1:3" ht="21">
@@ -4895,7 +4895,7 @@
         <v>278</v>
       </c>
       <c r="C287" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="288" spans="1:3" ht="21">
@@ -4906,7 +4906,7 @@
         <v>279</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="289" spans="1:3" ht="21">
@@ -4917,7 +4917,7 @@
         <v>280</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="290" spans="1:3" ht="21">
@@ -4928,7 +4928,7 @@
         <v>281</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="21">
@@ -4939,7 +4939,7 @@
         <v>282</v>
       </c>
       <c r="C291" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="292" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="473">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1865,7 +1865,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,8 +1875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B273" workbookViewId="0">
-      <selection activeCell="C277" sqref="C277"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1908,9 +1908,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
       <c r="A6" s="5" t="s">
@@ -4785,7 +4783,7 @@
         <v>268</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="21">
@@ -4807,7 +4805,7 @@
         <v>270</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="21">
@@ -4818,7 +4816,7 @@
         <v>271</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="281" spans="1:3" ht="21">
@@ -4862,7 +4860,7 @@
         <v>275</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="21">
@@ -4950,7 +4948,7 @@
         <v>283</v>
       </c>
       <c r="C292" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="475">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1444,6 +1444,12 @@
   </si>
   <si>
     <t>18 questions</t>
+  </si>
+  <si>
+    <t>22 questions</t>
+  </si>
+  <si>
+    <t>36 questions</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1875,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B177" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3320,7 +3326,7 @@
         <v>135</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="21">
@@ -3331,7 +3337,7 @@
         <v>136</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="21">
@@ -3342,7 +3348,7 @@
         <v>137</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="21">
@@ -3353,7 +3359,7 @@
         <v>138</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="21">
@@ -3364,7 +3370,7 @@
         <v>139</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="21">
@@ -3375,7 +3381,7 @@
         <v>140</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="21">
@@ -3386,7 +3392,7 @@
         <v>141</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="21">
@@ -3397,7 +3403,7 @@
         <v>142</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="21">
@@ -3408,7 +3414,7 @@
         <v>143</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="21">
@@ -3419,7 +3425,7 @@
         <v>144</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="21">
@@ -3430,7 +3436,7 @@
         <v>145</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="21">
@@ -3441,7 +3447,7 @@
         <v>146</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="21">
@@ -3452,7 +3458,7 @@
         <v>147</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="21">
@@ -3474,7 +3480,7 @@
         <v>149</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="21">
@@ -3485,7 +3491,7 @@
         <v>150</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="21">
@@ -3496,7 +3502,7 @@
         <v>151</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="21">
@@ -3507,7 +3513,7 @@
         <v>152</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="21">
@@ -3518,7 +3524,7 @@
         <v>153</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="21">
@@ -3529,7 +3535,7 @@
         <v>154</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="21">
@@ -3540,7 +3546,7 @@
         <v>155</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="21">
@@ -3551,7 +3557,7 @@
         <v>156</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="21">
@@ -3562,7 +3568,7 @@
         <v>157</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="21">
@@ -3573,7 +3579,7 @@
         <v>158</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="21">
@@ -3584,7 +3590,7 @@
         <v>159</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="21">
@@ -3595,7 +3601,7 @@
         <v>160</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="21">
@@ -3606,7 +3612,7 @@
         <v>161</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="21">
@@ -3617,7 +3623,7 @@
         <v>162</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="21">
@@ -3628,7 +3634,7 @@
         <v>163</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="21">
@@ -3639,7 +3645,7 @@
         <v>164</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="21">
@@ -3650,7 +3656,7 @@
         <v>165</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="21">
@@ -3661,7 +3667,7 @@
         <v>166</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="21">
@@ -3672,7 +3678,7 @@
         <v>167</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="21">
@@ -3683,7 +3689,7 @@
         <v>168</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="21">
@@ -3694,7 +3700,7 @@
         <v>169</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="21">
@@ -3705,10 +3711,13 @@
         <v>170</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="21">
+      <c r="A176" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="B176" s="7"/>
       <c r="C176" s="4"/>
     </row>
@@ -4103,7 +4112,9 @@
       <c r="C212" s="4"/>
     </row>
     <row r="213" spans="1:3" ht="21">
-      <c r="A213" s="8"/>
+      <c r="A213" s="8" t="s">
+        <v>473</v>
+      </c>
       <c r="B213" s="7"/>
       <c r="C213" s="4"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1871,7 +1871,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1881,8 +1881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B177" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3729,7 +3729,7 @@
         <v>172</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="21">
@@ -3740,7 +3740,7 @@
         <v>173</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="21">
@@ -3751,7 +3751,7 @@
         <v>174</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="21">
@@ -3762,7 +3762,7 @@
         <v>175</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="21">
@@ -3817,7 +3817,7 @@
         <v>180</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="21">
@@ -3828,7 +3828,7 @@
         <v>181</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="476">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>36 questions</t>
+  </si>
+  <si>
+    <t>34 ques</t>
   </si>
 </sst>
 </file>
@@ -1881,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="A236" sqref="A236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3839,7 +3842,7 @@
         <v>182</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="21">
@@ -3850,7 +3853,7 @@
         <v>183</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="21">
@@ -3861,7 +3864,7 @@
         <v>184</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="21">
@@ -3872,7 +3875,7 @@
         <v>185</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="21">
@@ -3883,7 +3886,7 @@
         <v>186</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="21">
@@ -3894,7 +3897,7 @@
         <v>187</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="21">
@@ -3905,7 +3908,7 @@
         <v>188</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="21">
@@ -3916,7 +3919,7 @@
         <v>189</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="21">
@@ -3927,7 +3930,7 @@
         <v>190</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="21">
@@ -3938,7 +3941,7 @@
         <v>191</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="21">
@@ -3949,7 +3952,7 @@
         <v>192</v>
       </c>
       <c r="C197" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="21">
@@ -3960,7 +3963,7 @@
         <v>193</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="21">
@@ -3971,7 +3974,7 @@
         <v>194</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="21">
@@ -4059,7 +4062,7 @@
         <v>202</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="21">
@@ -4365,6 +4368,9 @@
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:3" ht="21">
+      <c r="A237" s="5" t="s">
+        <v>475</v>
+      </c>
       <c r="B237" s="7"/>
       <c r="C237" s="4"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1874,7 +1874,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1884,8 +1884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="A236" sqref="A236"/>
+    <sheetView tabSelected="1" topLeftCell="B188" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3776,7 +3776,7 @@
         <v>176</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="21">
@@ -3787,7 +3787,7 @@
         <v>177</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="21">
@@ -3798,7 +3798,7 @@
         <v>178</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="21">
@@ -3809,7 +3809,7 @@
         <v>179</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="21">
@@ -3985,7 +3985,7 @@
         <v>195</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="21">
@@ -3996,7 +3996,7 @@
         <v>196</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="21">
@@ -4007,7 +4007,7 @@
         <v>197</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="21">
@@ -4018,7 +4018,7 @@
         <v>198</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="21">
@@ -4029,7 +4029,7 @@
         <v>199</v>
       </c>
       <c r="C204" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="21">
@@ -4040,7 +4040,7 @@
         <v>200</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="21">
@@ -4051,7 +4051,7 @@
         <v>201</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="21">
@@ -4084,7 +4084,7 @@
         <v>204</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="21">
@@ -4106,7 +4106,7 @@
         <v>206</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="477">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1453,6 +1453,9 @@
   </si>
   <si>
     <t>34 ques</t>
+  </si>
+  <si>
+    <t>43 ques</t>
   </si>
 </sst>
 </file>
@@ -1874,7 +1877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1884,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B188" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4073,7 +4076,7 @@
         <v>203</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="21">
@@ -4095,7 +4098,7 @@
         <v>205</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="21">
@@ -4129,7 +4132,7 @@
         <v>208</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="21">
@@ -4140,7 +4143,7 @@
         <v>209</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="21">
@@ -4151,7 +4154,7 @@
         <v>210</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="21">
@@ -4162,7 +4165,7 @@
         <v>211</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="218" spans="1:3" ht="21">
@@ -4173,7 +4176,7 @@
         <v>212</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="219" spans="1:3" ht="21">
@@ -4184,7 +4187,7 @@
         <v>213</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="21">
@@ -4195,7 +4198,7 @@
         <v>214</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="21">
@@ -4206,7 +4209,7 @@
         <v>215</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="21">
@@ -4217,7 +4220,7 @@
         <v>216</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="21">
@@ -4228,7 +4231,7 @@
         <v>217</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="21">
@@ -4239,7 +4242,7 @@
         <v>218</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="21">
@@ -4250,7 +4253,7 @@
         <v>219</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="21">
@@ -4261,7 +4264,7 @@
         <v>220</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="227" spans="1:3" ht="21">
@@ -4272,7 +4275,7 @@
         <v>221</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="228" spans="1:3" ht="21">
@@ -4283,7 +4286,7 @@
         <v>222</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="21">
@@ -4294,7 +4297,7 @@
         <v>223</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="21">
@@ -4305,7 +4308,7 @@
         <v>224</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="21">
@@ -4316,7 +4319,7 @@
         <v>225</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="21">
@@ -4327,7 +4330,7 @@
         <v>226</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" spans="1:3" ht="21">
@@ -4338,7 +4341,7 @@
         <v>227</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234" spans="1:3" ht="21">
@@ -4349,7 +4352,7 @@
         <v>228</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="21">
@@ -4360,7 +4363,7 @@
         <v>229</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="236" spans="1:3" ht="21">
@@ -5619,6 +5622,9 @@
       <c r="C354" s="4"/>
     </row>
     <row r="355" spans="1:3" ht="21">
+      <c r="A355" s="8" t="s">
+        <v>476</v>
+      </c>
       <c r="B355" s="7"/>
       <c r="C355" s="4"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1877,7 +1877,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B377" workbookViewId="0">
+      <selection activeCell="B366" sqref="B366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5636,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="357" spans="1:3" ht="21">
@@ -5647,7 +5647,7 @@
         <v>345</v>
       </c>
       <c r="C357" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="358" spans="1:3" ht="21">
@@ -5658,7 +5658,7 @@
         <v>346</v>
       </c>
       <c r="C358" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="359" spans="1:3" ht="21">
@@ -5669,7 +5669,7 @@
         <v>347</v>
       </c>
       <c r="C359" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="360" spans="1:3" ht="21">
@@ -5680,7 +5680,7 @@
         <v>348</v>
       </c>
       <c r="C360" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="361" spans="1:3" ht="21">
@@ -5691,7 +5691,7 @@
         <v>349</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="362" spans="1:3" ht="21">
@@ -5713,7 +5713,7 @@
         <v>351</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="364" spans="1:3" ht="21">
@@ -5724,7 +5724,7 @@
         <v>352</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="365" spans="1:3" ht="21">
@@ -5735,7 +5735,7 @@
         <v>353</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="366" spans="1:3" ht="21">
@@ -5768,7 +5768,7 @@
         <v>356</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="369" spans="1:3" ht="21">
@@ -5790,7 +5790,7 @@
         <v>358</v>
       </c>
       <c r="C370" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="371" spans="1:3" ht="21">
@@ -5801,7 +5801,7 @@
         <v>359</v>
       </c>
       <c r="C371" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="372" spans="1:3" ht="21">
@@ -5922,7 +5922,7 @@
         <v>370</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="383" spans="1:3" ht="21">
@@ -5933,7 +5933,7 @@
         <v>371</v>
       </c>
       <c r="C383" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="384" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="480">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1456,6 +1456,15 @@
   </si>
   <si>
     <t>43 ques</t>
+  </si>
+  <si>
+    <t>nhi hua</t>
+  </si>
+  <si>
+    <t>bf</t>
+  </si>
+  <si>
+    <t>AP</t>
   </si>
 </sst>
 </file>
@@ -1885,10 +1894,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B377" workbookViewId="0">
-      <selection activeCell="B366" sqref="B366"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5702,7 +5711,7 @@
         <v>350</v>
       </c>
       <c r="C362" s="4" t="s">
-        <v>4</v>
+        <v>477</v>
       </c>
     </row>
     <row r="363" spans="1:3" ht="21">
@@ -5771,7 +5780,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="21">
+    <row r="369" spans="1:4" ht="21">
       <c r="A369" s="8" t="s">
         <v>343</v>
       </c>
@@ -5779,10 +5788,10 @@
         <v>357</v>
       </c>
       <c r="C369" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="21">
       <c r="A370" s="8" t="s">
         <v>343</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="21">
+    <row r="371" spans="1:4" ht="21">
       <c r="A371" s="8" t="s">
         <v>343</v>
       </c>
@@ -5804,7 +5813,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="21">
+    <row r="372" spans="1:4" ht="21">
       <c r="A372" s="8" t="s">
         <v>343</v>
       </c>
@@ -5812,10 +5821,10 @@
         <v>360</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="373" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="21">
       <c r="A373" s="8" t="s">
         <v>343</v>
       </c>
@@ -5826,7 +5835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="21">
+    <row r="374" spans="1:4" ht="21">
       <c r="A374" s="8" t="s">
         <v>343</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="21">
+    <row r="375" spans="1:4" ht="21">
       <c r="A375" s="8" t="s">
         <v>343</v>
       </c>
@@ -5848,7 +5857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="21">
+    <row r="376" spans="1:4" ht="21">
       <c r="A376" s="8" t="s">
         <v>343</v>
       </c>
@@ -5859,7 +5868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="21">
+    <row r="377" spans="1:4" ht="21">
       <c r="A377" s="8" t="s">
         <v>343</v>
       </c>
@@ -5870,7 +5879,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="21">
+    <row r="378" spans="1:4" ht="21">
       <c r="A378" s="8" t="s">
         <v>343</v>
       </c>
@@ -5881,7 +5890,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="21">
+    <row r="379" spans="1:4" ht="21">
       <c r="A379" s="8" t="s">
         <v>343</v>
       </c>
@@ -5889,10 +5898,10 @@
         <v>367</v>
       </c>
       <c r="C379" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="21">
       <c r="A380" s="8" t="s">
         <v>343</v>
       </c>
@@ -5900,10 +5909,10 @@
         <v>368</v>
       </c>
       <c r="C380" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="21">
       <c r="A381" s="8" t="s">
         <v>343</v>
       </c>
@@ -5913,8 +5922,11 @@
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" ht="21">
+      <c r="D381" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="21">
       <c r="A382" s="8" t="s">
         <v>343</v>
       </c>
@@ -5925,7 +5937,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="21">
+    <row r="383" spans="1:4" ht="21">
       <c r="A383" s="8" t="s">
         <v>343</v>
       </c>
@@ -5936,7 +5948,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="21">
+    <row r="384" spans="1:4" ht="21">
       <c r="A384" s="8" t="s">
         <v>343</v>
       </c>
@@ -5946,8 +5958,11 @@
       <c r="C384" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" ht="21">
+      <c r="D384" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="21">
       <c r="A385" s="8" t="s">
         <v>343</v>
       </c>
@@ -5957,8 +5972,11 @@
       <c r="C385" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" ht="21">
+      <c r="D385" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="21">
       <c r="A386" s="8" t="s">
         <v>343</v>
       </c>
@@ -5966,10 +5984,10 @@
         <v>374</v>
       </c>
       <c r="C386" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="21">
       <c r="A387" s="8" t="s">
         <v>343</v>
       </c>
@@ -5979,8 +5997,11 @@
       <c r="C387" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" ht="21">
+      <c r="D387" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="21">
       <c r="A388" s="8" t="s">
         <v>343</v>
       </c>
@@ -5988,10 +6009,10 @@
         <v>376</v>
       </c>
       <c r="C388" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="21">
       <c r="A389" s="8" t="s">
         <v>343</v>
       </c>
@@ -6002,7 +6023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="21">
+    <row r="390" spans="1:4" ht="21">
       <c r="A390" s="8" t="s">
         <v>343</v>
       </c>
@@ -6013,7 +6034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="21">
+    <row r="391" spans="1:4" ht="21">
       <c r="A391" s="8" t="s">
         <v>343</v>
       </c>
@@ -6021,10 +6042,10 @@
         <v>378</v>
       </c>
       <c r="C391" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="21">
       <c r="A392" s="8" t="s">
         <v>343</v>
       </c>
@@ -6035,7 +6056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="21">
+    <row r="393" spans="1:4" ht="21">
       <c r="A393" s="8" t="s">
         <v>343</v>
       </c>
@@ -6043,10 +6064,10 @@
         <v>380</v>
       </c>
       <c r="C393" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="21">
       <c r="A394" s="8" t="s">
         <v>343</v>
       </c>
@@ -6057,7 +6078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="21">
+    <row r="395" spans="1:4" ht="21">
       <c r="A395" s="8" t="s">
         <v>343</v>
       </c>
@@ -6065,10 +6086,10 @@
         <v>382</v>
       </c>
       <c r="C395" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3" ht="21">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="21">
       <c r="A396" s="8" t="s">
         <v>343</v>
       </c>
@@ -6079,7 +6100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="21">
+    <row r="397" spans="1:4" ht="21">
       <c r="A397" s="8" t="s">
         <v>343</v>
       </c>
@@ -6090,7 +6111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="21">
+    <row r="398" spans="1:4" ht="21">
       <c r="A398" s="8" t="s">
         <v>343</v>
       </c>
@@ -6101,7 +6122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="21">
+    <row r="399" spans="1:4" ht="21">
       <c r="A399" s="8" t="s">
         <v>343</v>
       </c>
@@ -6109,10 +6130,10 @@
         <v>386</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3" ht="21">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="21">
       <c r="B400" s="7"/>
       <c r="C400" s="4"/>
     </row>

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="482">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1465,6 +1465,12 @@
   </si>
   <si>
     <t>AP</t>
+  </si>
+  <si>
+    <t>10 questions</t>
+  </si>
+  <si>
+    <t>43 questions</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1896,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1929,6 +1935,9 @@
       </c>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>474</v>
+      </c>
       <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="21">
@@ -1939,7 +1948,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1950,7 +1959,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1961,7 +1970,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1972,7 +1981,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1983,7 +1992,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1994,7 +2003,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -2005,7 +2014,7 @@
         <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -2016,7 +2025,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2027,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="21">
@@ -2038,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="21">
@@ -2049,7 +2058,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="21">
@@ -2060,7 +2069,7 @@
         <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2071,7 +2080,7 @@
         <v>18</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2082,7 +2091,7 @@
         <v>19</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="21">
@@ -2093,7 +2102,7 @@
         <v>20</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="21">
@@ -2104,7 +2113,7 @@
         <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="21">
@@ -2115,7 +2124,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="21">
@@ -2126,7 +2135,7 @@
         <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="21">
@@ -2159,7 +2168,7 @@
         <v>26</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="21">
@@ -2192,7 +2201,7 @@
         <v>29</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="21">
@@ -2334,7 +2343,9 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="21">
-      <c r="A43" s="5"/>
+      <c r="A43" s="5" t="s">
+        <v>480</v>
+      </c>
       <c r="B43" s="7"/>
       <c r="C43" s="4" t="s">
         <v>4</v>
@@ -2451,7 +2462,9 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="21">
-      <c r="A55" s="5"/>
+      <c r="A55" s="5" t="s">
+        <v>481</v>
+      </c>
       <c r="B55" s="7"/>
       <c r="C55" s="4"/>
     </row>
@@ -2929,7 +2942,9 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="21">
-      <c r="A100" s="8"/>
+      <c r="A100" s="8" t="s">
+        <v>474</v>
+      </c>
       <c r="B100" s="7"/>
       <c r="C100" s="4"/>
     </row>
@@ -5766,7 +5781,7 @@
         <v>355</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="368" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1892,7 +1892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2146,7 +2146,7 @@
         <v>24</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="21">
@@ -2157,7 +2157,7 @@
         <v>25</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="21">
@@ -2190,7 +2190,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1892,7 +1892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2179,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21">
@@ -2212,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="21">
@@ -2223,7 +2223,7 @@
         <v>31</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="21">
@@ -2234,7 +2234,7 @@
         <v>32</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21">
@@ -2245,7 +2245,7 @@
         <v>33</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1892,7 +1892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2956,7 +2956,7 @@
         <v>98</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="21">
@@ -2967,7 +2967,7 @@
         <v>99</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="21">
@@ -2978,7 +2978,7 @@
         <v>100</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="21">
@@ -2989,7 +2989,7 @@
         <v>101</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="21">
@@ -3000,7 +3000,7 @@
         <v>102</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="21">
@@ -3022,7 +3022,7 @@
         <v>104</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1892,7 +1892,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1902,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2476,7 +2476,7 @@
         <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2487,7 +2487,7 @@
         <v>55</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2498,7 +2498,7 @@
         <v>56</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2509,7 +2509,7 @@
         <v>57</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
@@ -2520,7 +2520,7 @@
         <v>58</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="21">
@@ -2531,7 +2531,7 @@
         <v>59</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="21">
@@ -2542,7 +2542,7 @@
         <v>60</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="21">
@@ -2553,7 +2553,7 @@
         <v>61</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>467</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="21">
